--- a/ttt.xlsx
+++ b/ttt.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>???20个颈霜两个地址未给，已经付款</t>
   </si>
@@ -112,10 +112,6 @@
   </si>
   <si>
     <t>朱斯娟15971277351 湖北省孝感市汉川市西湖路虫虫全球购 颈霜10个运费已经付</t>
-  </si>
-  <si>
-    <t>张玲玲 15966763531 山东省临沂市罗庄区文化路六小对过澳洲代购直邮，颈霜70个</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>出货</t>
@@ -127,6 +123,13 @@
   </si>
   <si>
     <t>存货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张玲玲 15966763531 山东省临沂市罗庄区文化路六小对过澳洲代购直邮，颈霜70个</t>
+  </si>
+  <si>
+    <t>张晨13655538226 安徽省芜湖市弋江区长江长小区22-403 颈霜6个</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -200,8 +203,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -248,7 +255,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="39">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -267,6 +274,8 @@
     <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -284,6 +293,8 @@
     <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -612,20 +623,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="110.5" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="6" max="7" width="10.83203125" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -635,8 +646,11 @@
       <c r="C1">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -646,8 +660,11 @@
       <c r="C2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="30">
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -657,8 +674,11 @@
       <c r="C3">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -668,8 +688,11 @@
       <c r="C4">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -679,8 +702,11 @@
       <c r="C5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -690,8 +716,11 @@
       <c r="C6">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -701,8 +730,11 @@
       <c r="C7">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -712,8 +744,11 @@
       <c r="C8">
         <v>120</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -723,8 +758,11 @@
       <c r="C9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -734,8 +772,11 @@
       <c r="C10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -745,8 +786,11 @@
       <c r="C11">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -756,8 +800,11 @@
       <c r="C12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -767,8 +814,11 @@
       <c r="C13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -778,8 +828,11 @@
       <c r="C14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -789,8 +842,11 @@
       <c r="C15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -800,8 +856,11 @@
       <c r="C16">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="D16" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -811,8 +870,11 @@
       <c r="C17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="D17" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -822,14 +884,17 @@
       <c r="C18">
         <v>10</v>
       </c>
-      <c r="F18">
+      <c r="D18" s="1">
+        <v>18</v>
+      </c>
+      <c r="G18">
         <v>5</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>528</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -839,11 +904,14 @@
       <c r="C19">
         <v>10</v>
       </c>
-      <c r="G19">
+      <c r="D19" s="1">
+        <v>19</v>
+      </c>
+      <c r="H19">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -853,14 +921,17 @@
       <c r="C20">
         <v>25</v>
       </c>
-      <c r="F20">
+      <c r="D20" s="1">
+        <v>20</v>
+      </c>
+      <c r="G20">
         <v>30</v>
       </c>
-      <c r="G20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -870,11 +941,14 @@
       <c r="C21">
         <v>10</v>
       </c>
-      <c r="G21">
+      <c r="D21" s="1">
+        <v>21</v>
+      </c>
+      <c r="H21">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -884,14 +958,17 @@
       <c r="C22">
         <v>10</v>
       </c>
-      <c r="F22">
+      <c r="D22" s="1">
+        <v>22</v>
+      </c>
+      <c r="G22">
         <v>360</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1300</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -901,11 +978,14 @@
       <c r="C23">
         <v>10</v>
       </c>
-      <c r="F23">
+      <c r="D23" s="1">
+        <v>23</v>
+      </c>
+      <c r="G23">
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -915,8 +995,11 @@
       <c r="C24">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="D24" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -926,8 +1009,11 @@
       <c r="C25">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="D25" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -937,8 +1023,11 @@
       <c r="C26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="D26" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -948,8 +1037,11 @@
       <c r="C27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="D27" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -959,81 +1051,110 @@
       <c r="C28">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="D28" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>29</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>28</v>
+      <c r="B29" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>30</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>31</v>
+      <c r="B30" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C30">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>31</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>29</v>
+      <c r="B31" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>70</v>
+      </c>
+      <c r="D31" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="4:5">
-      <c r="D36" t="s">
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1">
         <v>32</v>
       </c>
-      <c r="E36" s="4">
-        <f>SUM(C1:C77)+SUM(F1:F77)</f>
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="37" spans="4:5">
-      <c r="D37" t="s">
+    </row>
+    <row r="36" spans="1:6">
+      <c r="E36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="4">
+        <f>SUM(C1:C77)+SUM(G1:G77)</f>
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="E37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37">
+        <f>SUM(H1:H99)</f>
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="E39" t="s">
         <v>33</v>
       </c>
-      <c r="E37">
-        <f>SUM(G1:G99)</f>
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="39" spans="4:5">
-      <c r="D39" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39">
-        <f>E37-E36</f>
-        <v>577</v>
+      <c r="F39">
+        <f>F37-F36</f>
+        <v>571</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:C39">
-    <sortCondition ref="B15"/>
+  <sortState ref="A1:D39">
+    <sortCondition ref="B1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ttt.xlsx
+++ b/ttt.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>???20个颈霜两个地址未给，已经付款</t>
   </si>
@@ -130,6 +130,26 @@
   </si>
   <si>
     <t>张晨13655538226 安徽省芜湖市弋江区长江长小区22-403 颈霜6个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引-按时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈先生，15811824931 深圳市龙华区民治街道樟坑一区38栋 颈霜20个</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -137,7 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -179,6 +199,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -203,7 +232,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -243,8 +272,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -254,8 +295,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="51">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -276,6 +321,12 @@
     <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -295,6 +346,12 @@
     <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -623,269 +680,271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="110.5" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1">
-        <v>1</v>
+    <row r="1" spans="1:4" s="5" customFormat="1">
+      <c r="A1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D3" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30">
-      <c r="A3" s="1">
+    <row r="4" spans="1:4" ht="30">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C3">
-        <v>30</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="C4">
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1">
         <v>4</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
       <c r="D6" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="C7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="D10" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17">
         <v>10</v>
       </c>
       <c r="D17" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>10</v>
       </c>
       <c r="D18" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G18">
         <v>5</v>
@@ -896,16 +955,16 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <v>10</v>
       </c>
       <c r="D19" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H19">
         <v>100</v>
@@ -913,16 +972,16 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D20" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G20">
         <v>30</v>
@@ -933,16 +992,16 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21">
         <v>10</v>
       </c>
       <c r="D21" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H21">
         <v>100</v>
@@ -950,16 +1009,16 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G22">
         <v>360</v>
@@ -970,16 +1029,16 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C23">
         <v>10</v>
       </c>
       <c r="D23" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G23">
         <v>500</v>
@@ -987,173 +1046,201 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24">
         <v>10</v>
       </c>
       <c r="D24" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D25" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D26" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D27" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D28" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1">
-        <v>29</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" s="1">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30">
+        <v>50</v>
+      </c>
+      <c r="D30" s="1">
         <v>28</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30" s="1">
-        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="D31" s="1">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33">
+        <v>70</v>
+      </c>
+      <c r="D33" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C32">
+      <c r="C34">
         <v>1</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D34" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1">
-        <v>33</v>
-      </c>
-      <c r="B33" s="2" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C33">
-        <v>10</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="E36" t="s">
+    <row r="51" spans="5:6">
+      <c r="E51" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="4">
-        <f>SUM(C1:C77)+SUM(G1:G77)</f>
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="E37" t="s">
+      <c r="F51" s="4">
+        <f>SUM(C2:C77)+SUM(G1:G77)</f>
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6">
+      <c r="E52" t="s">
         <v>32</v>
       </c>
-      <c r="F37">
+      <c r="F52">
         <f>SUM(H1:H99)</f>
         <v>2038</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="E39" t="s">
+    <row r="54" spans="5:6">
+      <c r="E54" t="s">
         <v>33</v>
       </c>
-      <c r="F39">
-        <f>F37-F36</f>
-        <v>571</v>
+      <c r="F54">
+        <f>F52-F51</f>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:D39">
+  <sortState ref="A2:D54">
     <sortCondition ref="B1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/ttt.xlsx
+++ b/ttt.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="颈霜" sheetId="1" r:id="rId1"/>
+    <sheet name="女宝" sheetId="2" r:id="rId2"/>
+    <sheet name="男宝" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="137">
   <si>
     <t>???20个颈霜两个地址未给，已经付款</t>
   </si>
@@ -133,23 +135,332 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>个数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引-按时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈先生，15811824931 深圳市龙华区民治街道樟坑一区38栋 颈霜20个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘春连收，15282853688 收货：四川省成都市锦江区通盈街777号，天使宝贝 身份证号码:510722198810263068，发件人:A smile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>序号</t>
+  </si>
+  <si>
+    <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>详情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>索引-按时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈先生，15811824931 深圳市龙华区民治街道樟坑一区38栋 颈霜20个</t>
+  </si>
+  <si>
+    <t>详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>马婷婷 13897648054 青海省西宁市城东区索麻巷北关村小区 一组男</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙吉，15951924880 康迪克男4，，南京白下区光华路147号石林百货30929， 身份证320582198304171742</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>佟霖 收 18936222218 康迪克男宝*1，江苏省扬州市广陵区东花园路109号 万马房产  211381199011205219，发件人:A smile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵瑞13863367519 男款水杯5套山东莱芜市莱城区文化北路新起点高中北临奇妙妈妈店铺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔欣18806338720 10套男款江苏省常州市钟楼区锦江丽都7丙701</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩淑婷13863367519 5套男款山东省日照市东港区沙墩一区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵星榕 电话：18957836080 男宝一套  ：浙江省宁波市江北区慈城镇维拉小镇二期怡园366-303 ：身份证：330219198104190990</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘敏18256058435  男孩水杯*3套 安徽合肥市包河区包河大道滨水湾小区21栋102    身份证号340111198701141527</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王婷13371395855 山东省海阳市海政路195号 男款2套，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡春红 18118486009 江苏省苏州市张家港市杨舍镇塘市花苑13幢005号车库，身份证号320582198703212345，男宝两套</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">何尚霖 15982601063 四川省岳池市小九龙镇奥帝鑫城C区  康迪克男孩水杯一套 发件人，陈晓霞 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人: 唐爽 电话号码:13990110076 康迪克男宝*1 收件人地址: 四川省绵阳市涪城区红星街105号长城花园  身份证号:510227198011110019  ，发件人:A smile 0451461208</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑文静15066012336 山东省东营市垦利县国土资源局 身份证370521198510224426男孩一套，发件人:A smile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋晓莉，15675313201 康迪克水杯 男1组 发货Australian 收货地址 湖南省株洲市天元区珠江北路翠谷城一栋904 ，身份证：430203199011107024</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘璐 15069976169 一组男孩！地址山东省临沂市罗庄区江泉国际小区6号楼 身份证号371311198910163527</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄振东 15868595001 男孩两组直邮!浙江省温州市苍南县灵溪镇莲池路77-11， 33032719860412133x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪翠银，15159867333 福建省石狮曾坑坑前谭革楼4楼，20套男宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">蔡春红 江苏省苏州市张家港市杨舍镇塘市花苑13幢005号车库 18118486009 320582198703212345 女宝两套 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">陈鑫 江西省赣州市会昌县文武坝镇滨江大道豪爵摩托专卖店 18270026166 360733198805230019 美国直邮康迪克儿童女宝杯子2套 发件人，lee15979771018 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">程凌云 山西省太原市坞城南路荣军北街臻观苑南区3-3 13934572510 140102197311054833 直邮康迪克女孩杯子一组  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">戴苑菁 海南省海口市美兰区海府一横路45号骏发名宇 13907576567 460102198807161869 女宝一组 发货王红霞18365666805 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">方晓颖 四川省成都市成华区欣然一街1号浅水半岛B区15栋 18628959990 510108198707310620 康迪克女宝*1 发件人:A smile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">高媛 河北省唐山市路南区学院南路国防道 物资楼2门203 治安警察支队院内 18244576662 130281199010190020 女宝宝2套  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄海艳 湖南省永州市蓝山县南平路畜牧局 15211665092 432927197706280028 康迪克水杯女孩色一组直邮  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蒋蓉蓉 安徽省合肥市新站区北二环与芦岭路交口巴黎春天商务楼 合肥科技农村商业银行 13956911160 342601198201250643 康迪克女宝一组  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">刘春连 四川省成都市锦江区通盈街777号，天使宝贝 15282853688 510722198810263068 康迪克女宝*3 发件人:A smile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">刘春阳 陕西省宝鸡市渭滨区八一大楼速递易 18191799082 32032219900125082X 女孩一套  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">刘菁菁 重庆市北碚区云清路261号 13996454688 500106198903152549 女宝宝两组  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">刘璐 地址山东省临沂市罗庄区江泉国际小区6号楼  15069976169 371311198910163527 一组女孩  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">刘晓彤 江苏省徐州市鼓楼区九里峰景A2-2-1002 13852030072   320311198611186120 女孩美国杯子一套  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">马婷婷 青海省西宁市城东区索麻巷北关村小区 13897648054 630104199206120526 一组女杯子直邮  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">南南 海南省海口市龙华区滨涯村一区6栋一单元606 18089880575  2组女童Contigo杯子 谢云云18289470084 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">倪小乐 浙江省温州市乐清市虹桥镇西沙路91弄2号  13868769217 330322198712034821 两组女宝宝  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">宋晓莉 湖南省株洲市天元区珠江北路翠谷城一栋904  15675313201 430203199011107024 康迪克水杯 女1组 发货Australian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">孙吉 南京白下区光华路147号石林百货30929 15951924880  320582198304171742 女二  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">谈乐 湖北省黄冈市黄州区赤壁北路嘉豪幸福里小区 18772535520 421125199005094644 女款一套  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">佟霖 江苏省扬州市广陵区东花园路109号 万马房产 18936222218  211381199011205219 康迪克女宝*1 发件人:A smile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">王红娟 山东潍坊临朐新华路运输公司家属楼 13280154736 370724198806053881 一红色  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">王红霞 山东省潍坊市临朐县全福元步行街国酒茅台专卖店 18365666805 370724198502103886 红的两组  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">王静艳 江苏省苏州市吴中区郭巷街道郭新西路188号（国香园30幢） 13584885309 320586198611111585 女宝宝一套  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">王婷 山东省海阳市海政路195号 13371395855 370687198904220428 女款一套  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">杨帆 江苏省淮安市盱眙县大庆路圣海天鹅湖畔扬帆超市  15161771990    320830199002260074 红的一组  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">翟佳 河北省唐山市路北区金隅乐府Ｂ16-2-801 13603379006 130282198701010422 女宝一套  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">张露 贵州省贵阳市云岩区未来方舟E1组团4栋 18685153339 520103198410061221 女孩一组 发件 周小喵 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">郑文静 山东省东营市垦利县国土资源局 15066012336 370521198510224426 女孩一套 发件人:A smile  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">钟紫凌 江西财经大学蛟桥园北区 13979156849 360302199011203527 女孩子水杯一组  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">周建凯 山东省潍坊市临朐县全福元步行街国酒茅台专卖店 18365666805 370724198909043870 儿童红色一组  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">张海宁 陕西省西安市户县森工医院 18092940668 610321198306071521 contigo水杯女宝宝*2组，直邮 于金琪18629083985 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">牛智洁 内蒙古巴彦淖尔市临河区滨河街建祥园 18547870715 152801199507291229  女宝  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">张静 内蒙古巴彦淖尔市临河区金莎丽苑A14-1-601 15248878068 152801199005151840 【女色】女宝两套  </t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">任静   厦门市集美区天安路70号311室 15105982885    水杯一套 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">王晶 湖南省衡阳市雁峰区黄茶岭幸福嘉园 18773408012 430421199004061463 女宝水杯一套 </t>
+  </si>
+  <si>
+    <t>张海宁 陕西省西安市户县森工医院 18092940668 610321198306071521 contigo水杯女宝宝*2组，直邮 发件人：于金琪18629083985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">梁宇玮，13986616886 湖北省咸宁市温泉城区双鹤路26号曦园小区，身份证：422302198412250045直邮一组 康迪克女童色水杯     </t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>吴卫，电话15919489357 地址:广东省深圳市宝安区西乡九围洲石公路597号 身份证号362204198911025329，一组女宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>38</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -157,6 +468,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -209,7 +523,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,8 +536,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -231,8 +551,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -284,8 +619,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -299,8 +664,44 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="81">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -327,6 +728,21 @@
     <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -352,6 +768,21 @@
     <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -682,9 +1113,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -697,16 +1128,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -784,7 +1215,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -1252,4 +1683,736 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="29.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="139.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="18" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="29.33203125" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1">
+      <c r="A1" s="7">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="7">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="7">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="7">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="7">
+        <v>5</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="7">
+        <v>6</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="7">
+        <v>8</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="7">
+        <v>10</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="7">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="7">
+        <v>12</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="7">
+        <v>13</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="7">
+        <v>14</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="7">
+        <v>15</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="7">
+        <v>16</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="7">
+        <v>17</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="7">
+        <v>20</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="7">
+        <v>21</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="12" customFormat="1">
+      <c r="A19" s="7">
+        <v>22</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="7">
+        <v>23</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="7">
+        <v>24</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="7">
+        <v>25</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="7">
+        <v>27</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="7">
+        <v>28</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="7">
+        <v>30</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="7">
+        <v>31</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="7">
+        <v>35</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="7">
+        <v>36</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="7">
+        <v>37</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="7">
+        <v>38</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="I30" s="14"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="7">
+        <v>33</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="7">
+        <v>18</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="7">
+        <v>34</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="7">
+        <v>19</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="7">
+        <v>26</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="7">
+        <v>32</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="7">
+        <v>9</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="7">
+        <v>29</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="10"/>
+    </row>
+  </sheetData>
+  <sortState ref="A1:C38">
+    <sortCondition ref="C1"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="5.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="168.1640625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="15">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="15">
+        <v>15</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="15">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="15">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="15">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" s="15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" s="15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="C24" s="15">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/ttt.xlsx
+++ b/ttt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="颈霜" sheetId="1" r:id="rId1"/>
@@ -147,10 +147,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>刘春连收，15282853688 收货：四川省成都市锦江区通盈街777号，天使宝贝 身份证号码:510722198810263068，发件人:A smile</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
   </si>
   <si>
@@ -461,6 +457,10 @@
   </si>
   <si>
     <t>38</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘春连收，15282853688 收货：四川省成都市锦江区通盈街777号，天使宝贝 男宝2套  身份证号码:510722198810263068，发件人:A smile</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1128,10 +1128,10 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>36</v>
@@ -1689,7 +1689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -1711,10 +1711,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
@@ -1724,10 +1724,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1735,10 +1735,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1746,10 +1746,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1757,10 +1757,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1768,10 +1768,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1779,10 +1779,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1801,10 +1801,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1812,10 +1812,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1823,10 +1823,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1834,10 +1834,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1845,10 +1845,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1856,10 +1856,10 @@
         <v>15</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1867,10 +1867,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1878,10 +1878,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1889,10 +1889,10 @@
         <v>20</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -1904,10 +1904,10 @@
         <v>21</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="12" customFormat="1">
@@ -1915,10 +1915,10 @@
         <v>22</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
@@ -1932,10 +1932,10 @@
         <v>23</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1943,10 +1943,10 @@
         <v>24</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1954,10 +1954,10 @@
         <v>25</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1965,10 +1965,10 @@
         <v>27</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1976,10 +1976,10 @@
         <v>28</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1987,10 +1987,10 @@
         <v>30</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1998,10 +1998,10 @@
         <v>31</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F26" s="12"/>
       <c r="I26" s="12"/>
@@ -2011,10 +2011,10 @@
         <v>35</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2022,10 +2022,10 @@
         <v>36</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2033,10 +2033,10 @@
         <v>37</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2044,10 +2044,10 @@
         <v>38</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I30" s="14"/>
     </row>
@@ -2056,10 +2056,10 @@
         <v>33</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2067,10 +2067,10 @@
         <v>18</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2078,10 +2078,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2089,10 +2089,10 @@
         <v>19</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2100,10 +2100,10 @@
         <v>26</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2111,10 +2111,10 @@
         <v>32</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2122,10 +2122,10 @@
         <v>9</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2133,10 +2133,10 @@
         <v>29</v>
       </c>
       <c r="B38" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="18" t="s">
         <v>135</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>136</v>
       </c>
       <c r="D38" s="10"/>
     </row>
@@ -2159,8 +2159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2173,10 +2173,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>37</v>
@@ -2187,7 +2187,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="C2" s="15">
         <v>1</v>
@@ -2198,7 +2198,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="15">
         <v>2</v>
@@ -2209,7 +2209,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="15">
         <v>3</v>
@@ -2220,7 +2220,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="15">
         <v>4</v>
@@ -2231,7 +2231,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="15">
         <v>5</v>
@@ -2242,7 +2242,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="15">
         <v>6</v>
@@ -2253,7 +2253,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="15">
         <v>7</v>
@@ -2264,7 +2264,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="15">
         <v>8</v>
@@ -2275,7 +2275,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="15">
         <v>9</v>
@@ -2286,7 +2286,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="15">
         <v>10</v>
@@ -2297,7 +2297,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="15">
         <v>11</v>
@@ -2308,7 +2308,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="15">
         <v>12</v>
@@ -2319,7 +2319,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="15">
         <v>13</v>
@@ -2330,7 +2330,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="15">
         <v>14</v>
@@ -2341,7 +2341,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="15">
         <v>15</v>
@@ -2352,7 +2352,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="15">
         <v>16</v>
@@ -2363,7 +2363,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="15">
         <v>17</v>
@@ -2374,7 +2374,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="15">
         <v>18</v>

--- a/ttt.xlsx
+++ b/ttt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27300" windowHeight="16540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="颈霜" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="266">
   <si>
     <t>???20个颈霜两个地址未给，已经付款</t>
   </si>
@@ -229,238 +229,655 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">蔡春红 江苏省苏州市张家港市杨舍镇塘市花苑13幢005号车库 18118486009 320582198703212345 女宝两套 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">陈鑫 江西省赣州市会昌县文武坝镇滨江大道豪爵摩托专卖店 18270026166 360733198805230019 美国直邮康迪克儿童女宝杯子2套 发件人，lee15979771018 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">程凌云 山西省太原市坞城南路荣军北街臻观苑南区3-3 13934572510 140102197311054833 直邮康迪克女孩杯子一组  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">戴苑菁 海南省海口市美兰区海府一横路45号骏发名宇 13907576567 460102198807161869 女宝一组 发货王红霞18365666805 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">方晓颖 四川省成都市成华区欣然一街1号浅水半岛B区15栋 18628959990 510108198707310620 康迪克女宝*1 发件人:A smile </t>
-  </si>
-  <si>
-    <t xml:space="preserve">高媛 河北省唐山市路南区学院南路国防道 物资楼2门203 治安警察支队院内 18244576662 130281199010190020 女宝宝2套  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄海艳 湖南省永州市蓝山县南平路畜牧局 15211665092 432927197706280028 康迪克水杯女孩色一组直邮  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">蒋蓉蓉 安徽省合肥市新站区北二环与芦岭路交口巴黎春天商务楼 合肥科技农村商业银行 13956911160 342601198201250643 康迪克女宝一组  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">刘春连 四川省成都市锦江区通盈街777号，天使宝贝 15282853688 510722198810263068 康迪克女宝*3 发件人:A smile </t>
-  </si>
-  <si>
-    <t xml:space="preserve">刘春阳 陕西省宝鸡市渭滨区八一大楼速递易 18191799082 32032219900125082X 女孩一套  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">刘菁菁 重庆市北碚区云清路261号 13996454688 500106198903152549 女宝宝两组  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">刘璐 地址山东省临沂市罗庄区江泉国际小区6号楼  15069976169 371311198910163527 一组女孩  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">刘晓彤 江苏省徐州市鼓楼区九里峰景A2-2-1002 13852030072   320311198611186120 女孩美国杯子一套  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">马婷婷 青海省西宁市城东区索麻巷北关村小区 13897648054 630104199206120526 一组女杯子直邮  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">南南 海南省海口市龙华区滨涯村一区6栋一单元606 18089880575  2组女童Contigo杯子 谢云云18289470084 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">倪小乐 浙江省温州市乐清市虹桥镇西沙路91弄2号  13868769217 330322198712034821 两组女宝宝  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">宋晓莉 湖南省株洲市天元区珠江北路翠谷城一栋904  15675313201 430203199011107024 康迪克水杯 女1组 发货Australian </t>
-  </si>
-  <si>
-    <t xml:space="preserve">孙吉 南京白下区光华路147号石林百货30929 15951924880  320582198304171742 女二  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">谈乐 湖北省黄冈市黄州区赤壁北路嘉豪幸福里小区 18772535520 421125199005094644 女款一套  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">佟霖 江苏省扬州市广陵区东花园路109号 万马房产 18936222218  211381199011205219 康迪克女宝*1 发件人:A smile </t>
-  </si>
-  <si>
-    <t xml:space="preserve">王红娟 山东潍坊临朐新华路运输公司家属楼 13280154736 370724198806053881 一红色  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">王红霞 山东省潍坊市临朐县全福元步行街国酒茅台专卖店 18365666805 370724198502103886 红的两组  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">王静艳 江苏省苏州市吴中区郭巷街道郭新西路188号（国香园30幢） 13584885309 320586198611111585 女宝宝一套  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">王婷 山东省海阳市海政路195号 13371395855 370687198904220428 女款一套  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">杨帆 江苏省淮安市盱眙县大庆路圣海天鹅湖畔扬帆超市  15161771990    320830199002260074 红的一组  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">翟佳 河北省唐山市路北区金隅乐府Ｂ16-2-801 13603379006 130282198701010422 女宝一套  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">张露 贵州省贵阳市云岩区未来方舟E1组团4栋 18685153339 520103198410061221 女孩一组 发件 周小喵 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">郑文静 山东省东营市垦利县国土资源局 15066012336 370521198510224426 女孩一套 发件人:A smile  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">钟紫凌 江西财经大学蛟桥园北区 13979156849 360302199011203527 女孩子水杯一组  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">周建凯 山东省潍坊市临朐县全福元步行街国酒茅台专卖店 18365666805 370724198909043870 儿童红色一组  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">张海宁 陕西省西安市户县森工医院 18092940668 610321198306071521 contigo水杯女宝宝*2组，直邮 于金琪18629083985 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">牛智洁 内蒙古巴彦淖尔市临河区滨河街建祥园 18547870715 152801199507291229  女宝  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">张静 内蒙古巴彦淖尔市临河区金莎丽苑A14-1-601 15248878068 152801199005151840 【女色】女宝两套  </t>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">任静   厦门市集美区天安路70号311室 15105982885    水杯一套 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">王晶 湖南省衡阳市雁峰区黄茶岭幸福嘉园 18773408012 430421199004061463 女宝水杯一套 </t>
-  </si>
-  <si>
-    <t>张海宁 陕西省西安市户县森工医院 18092940668 610321198306071521 contigo水杯女宝宝*2组，直邮 发件人：于金琪18629083985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">梁宇玮，13986616886 湖北省咸宁市温泉城区双鹤路26号曦园小区，身份证：422302198412250045直邮一组 康迪克女童色水杯     </t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>吴卫，电话15919489357 地址:广东省深圳市宝安区西乡九围洲石公路597号 身份证号362204198911025329，一组女宝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>38</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>刘春连收，15282853688 收货：四川省成都市锦江区通盈街777号，天使宝贝 男宝2套  身份证号码:510722198810263068，发件人:A smile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款一半</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成琴18365396299 安徽省淮南市田家庵区阳光国际城东区16 发件人陈手机号13775726186 ，颈霜500个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐燕南13861086256 江苏省无锡市江阴市璜土镇镇北路5号 ，360个颈霜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常冰辰 15236178333 河南省洛阳市西工区滨河北路水榭王城 两百只，代发人王云飘13960782564</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">曹静 15927648184。湖北省 武汉市东西湖区金银湖南一街金湖天地  100个，代发人王云飘13960782564 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款一半</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡春红</t>
+  </si>
+  <si>
+    <t>江苏省苏州市张家港市杨舍镇塘市花苑13幢005号车库</t>
+  </si>
+  <si>
+    <t>18118486009</t>
+  </si>
+  <si>
+    <t>320582198703212345</t>
+  </si>
+  <si>
+    <t>女宝两套</t>
+  </si>
+  <si>
+    <t>陈鑫</t>
+  </si>
+  <si>
+    <t>江西省赣州市会昌县文武坝镇滨江大道豪爵摩托专卖店</t>
+  </si>
+  <si>
+    <t>18270026166</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>360733198805230019</t>
+  </si>
+  <si>
+    <t>美国直邮康迪克儿童女宝杯子2套</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发件人，lee15979771018</t>
+  </si>
+  <si>
+    <t>程凌云</t>
+  </si>
+  <si>
+    <t>山西省太原市坞城南路荣军北街臻观苑南区3-3</t>
+  </si>
+  <si>
+    <t>13934572510</t>
+  </si>
+  <si>
+    <t>140102197311054833</t>
+  </si>
+  <si>
+    <t>直邮康迪克女孩杯子一组</t>
+  </si>
+  <si>
+    <t>戴苑菁</t>
+  </si>
+  <si>
+    <t>海南省海口市美兰区海府一横路45号骏发名宇</t>
+  </si>
+  <si>
+    <t>13907576567</t>
+  </si>
+  <si>
+    <t>460102198807161869</t>
+  </si>
+  <si>
+    <t>女宝一组</t>
+  </si>
+  <si>
+    <t>发货王红霞18365666805</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方晓颖</t>
+  </si>
+  <si>
+    <t>四川省成都市成华区欣然一街1号浅水半岛B区15栋</t>
+  </si>
+  <si>
+    <t>18628959990</t>
+  </si>
+  <si>
+    <t>510108198707310620</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>康迪克女宝*1</t>
+  </si>
+  <si>
+    <t>发件人:A smile</t>
+  </si>
+  <si>
+    <t>高媛</t>
+  </si>
+  <si>
+    <t>河北省唐山市路南区学院南路国防道 物资楼2门203 治安警察支队院内</t>
+  </si>
+  <si>
+    <t>18244576662</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>130281199010190020</t>
+  </si>
+  <si>
+    <t>女宝宝2套</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄海艳</t>
+  </si>
+  <si>
+    <t>湖南省永州市蓝山县南平路畜牧局</t>
+  </si>
+  <si>
+    <t>15211665092</t>
+  </si>
+  <si>
+    <t>432927197706280028</t>
+  </si>
+  <si>
+    <t>康迪克水杯女孩色一组直邮</t>
+  </si>
+  <si>
+    <t>蒋蓉蓉</t>
+  </si>
+  <si>
+    <t>安徽省合肥市新站区北二环与芦岭路交口巴黎春天商务楼 合肥科技农村商业银行</t>
+  </si>
+  <si>
+    <t>13956911160</t>
+  </si>
+  <si>
+    <t>342601198201250643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">康迪克女宝一组 </t>
+  </si>
+  <si>
+    <t>刘春连</t>
+  </si>
+  <si>
+    <t>四川省成都市锦江区通盈街777号，天使宝贝</t>
+  </si>
+  <si>
+    <t>15282853688</t>
+  </si>
+  <si>
+    <t>510722198810263068</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>康迪克女宝*3</t>
+  </si>
+  <si>
+    <t>刘春阳</t>
+  </si>
+  <si>
+    <t>陕西省宝鸡市渭滨区八一大楼速递易</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18191799082</t>
+  </si>
+  <si>
+    <t>32032219900125082X</t>
+  </si>
+  <si>
+    <t>女孩一套</t>
+  </si>
+  <si>
+    <t>刘菁菁</t>
+  </si>
+  <si>
+    <t>重庆市北碚区云清路261号</t>
+  </si>
+  <si>
+    <t>13996454688</t>
+  </si>
+  <si>
+    <t>500106198903152549</t>
+  </si>
+  <si>
+    <t>女宝宝两组</t>
+  </si>
+  <si>
+    <t>刘璐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地址山东省临沂市罗庄区江泉国际小区6号楼 </t>
+  </si>
+  <si>
+    <t>15069976169</t>
+  </si>
+  <si>
+    <t>371311198910163527</t>
+  </si>
+  <si>
+    <t>一组女孩</t>
+  </si>
+  <si>
+    <t>刘晓彤</t>
+  </si>
+  <si>
+    <t>江苏省徐州市鼓楼区九里峰景A2-2-1002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13852030072  </t>
+  </si>
+  <si>
+    <t>320311198611186120</t>
+  </si>
+  <si>
+    <t>女孩美国杯子一套</t>
+  </si>
+  <si>
+    <t>马婷婷</t>
+  </si>
+  <si>
+    <t>青海省西宁市城东区索麻巷北关村小区</t>
+  </si>
+  <si>
+    <t>13897648054</t>
+  </si>
+  <si>
+    <t>630104199206120526</t>
+  </si>
+  <si>
+    <t>一组女杯子直邮</t>
+  </si>
+  <si>
+    <t>南南</t>
+  </si>
+  <si>
+    <t>海南省海口市龙华区滨涯村一区6栋一单元606</t>
+  </si>
+  <si>
+    <t>18089880575</t>
+  </si>
+  <si>
+    <t>2组女童Contigo杯子</t>
+  </si>
+  <si>
+    <t>谢云云18289470084</t>
+  </si>
+  <si>
+    <t>倪小乐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">浙江省温州市乐清市虹桥镇西沙路91弄2号 </t>
+  </si>
+  <si>
+    <t>13868769217</t>
+  </si>
+  <si>
+    <t>330322198712034821</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两组女宝宝</t>
+  </si>
+  <si>
+    <t>宋晓莉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">湖南省株洲市天元区珠江北路翠谷城一栋904 </t>
+  </si>
+  <si>
+    <t>15675313201</t>
+  </si>
+  <si>
+    <t>430203199011107024</t>
+  </si>
+  <si>
+    <t>康迪克水杯 女1组</t>
+  </si>
+  <si>
+    <t>发货Australian</t>
+  </si>
+  <si>
+    <t>孙吉</t>
+  </si>
+  <si>
+    <t>南京白下区光华路147号石林百货30929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15951924880 </t>
+  </si>
+  <si>
+    <t>320582198304171742</t>
+  </si>
+  <si>
+    <t>女二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谈乐</t>
+  </si>
+  <si>
+    <t>湖北省黄冈市黄州区赤壁北路嘉豪幸福里小区</t>
+  </si>
+  <si>
+    <t>18772535520</t>
+  </si>
+  <si>
+    <t>421125199005094644</t>
+  </si>
+  <si>
+    <t>女款一套</t>
+  </si>
+  <si>
+    <t>佟霖</t>
+  </si>
+  <si>
+    <t>江苏省扬州市广陵区东花园路109号 万马房产</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18936222218 </t>
+  </si>
+  <si>
+    <t>211381199011205219</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王红娟</t>
+  </si>
+  <si>
+    <t>山东潍坊临朐新华路运输公司家属楼</t>
+  </si>
+  <si>
+    <t>13280154736</t>
+  </si>
+  <si>
+    <t>370724198806053881</t>
+  </si>
+  <si>
+    <t>一红色</t>
+  </si>
+  <si>
+    <t>王红霞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东省潍坊市临朐县全福元步行街国酒茅台专卖店</t>
+  </si>
+  <si>
+    <t>18365666805</t>
+  </si>
+  <si>
+    <t>370724198502103886</t>
+  </si>
+  <si>
+    <t>红的两组</t>
+  </si>
+  <si>
+    <t>王静艳</t>
+  </si>
+  <si>
+    <t>江苏省苏州市吴中区郭巷街道郭新西路188号（国香园30幢）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13584885309</t>
+  </si>
+  <si>
+    <t>320586198611111585</t>
+  </si>
+  <si>
+    <t>女宝宝一套</t>
+  </si>
+  <si>
+    <t>王婷</t>
+  </si>
+  <si>
+    <t>山东省海阳市海政路195号</t>
+  </si>
+  <si>
+    <t>13371395855</t>
+  </si>
+  <si>
+    <t>370687198904220428</t>
+  </si>
+  <si>
+    <t>杨帆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">江苏省淮安市盱眙县大庆路圣海天鹅湖畔扬帆超市 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15161771990   </t>
+  </si>
+  <si>
+    <t>320830199002260074</t>
+  </si>
+  <si>
+    <t>红的一组</t>
+  </si>
+  <si>
+    <t>翟佳</t>
+  </si>
+  <si>
+    <t>河北省唐山市路北区金隅乐府Ｂ16-2-801</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13603379006</t>
+  </si>
+  <si>
+    <t>130282198701010422</t>
+  </si>
+  <si>
+    <t>女宝一套</t>
+  </si>
+  <si>
+    <t>张露</t>
+  </si>
+  <si>
+    <t>贵州省贵阳市云岩区未来方舟E1组团4栋</t>
+  </si>
+  <si>
+    <t>520103198410061221</t>
+  </si>
+  <si>
+    <t>女孩一组</t>
+  </si>
+  <si>
+    <t>发件 周小喵</t>
+  </si>
+  <si>
+    <t>郑文静</t>
+  </si>
+  <si>
+    <t>山东省东营市垦利县国土资源局</t>
+  </si>
+  <si>
+    <t>15066012336</t>
+  </si>
+  <si>
+    <t>370521198510224426</t>
+  </si>
+  <si>
+    <t>钟紫凌</t>
+  </si>
+  <si>
+    <t>江西财经大学蛟桥园北区</t>
+  </si>
+  <si>
+    <t>13979156849</t>
+  </si>
+  <si>
+    <t>360302199011203527</t>
+  </si>
+  <si>
+    <t>女孩子水杯一组</t>
+  </si>
+  <si>
+    <t>周建凯</t>
+  </si>
+  <si>
+    <t>370724198909043870</t>
+  </si>
+  <si>
+    <t>儿童红色一组</t>
+  </si>
+  <si>
+    <t>张海宁</t>
+  </si>
+  <si>
+    <t>陕西省西安市户县森工医院</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18092940668
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>610321198306071521</t>
+  </si>
+  <si>
+    <t>contigo水杯女宝宝*2组，直邮</t>
+  </si>
+  <si>
+    <t>于金琪18629083985</t>
+  </si>
+  <si>
+    <t>牛智洁</t>
+  </si>
+  <si>
+    <t>内蒙古巴彦淖尔市临河区滨河街建祥园</t>
+  </si>
+  <si>
+    <t>18547870715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152801199507291229 </t>
+  </si>
+  <si>
+    <t>女宝1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张静</t>
+  </si>
+  <si>
+    <t>内蒙古巴彦淖尔市临河区金莎丽苑A14-1-601</t>
+  </si>
+  <si>
+    <t>15248878068</t>
+  </si>
+  <si>
+    <t>152801199005151840</t>
+  </si>
+  <si>
+    <t>【女色】女宝1套</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任静</t>
+  </si>
+  <si>
+    <t xml:space="preserve">厦门市集美区天安路70号311室     </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">15105982885 </t>
+  </si>
+  <si>
+    <t>水杯一套</t>
+  </si>
+  <si>
+    <t>王晶</t>
+  </si>
+  <si>
+    <t>湖南省衡阳市雁峰区黄茶岭幸福嘉园</t>
+  </si>
+  <si>
+    <t>18773408012</t>
+  </si>
+  <si>
+    <t>430421199004061463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">女宝水杯一套 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18092940668 </t>
+  </si>
+  <si>
+    <t>发件人：于金琪18629083985</t>
+  </si>
+  <si>
+    <t>梁宇玮</t>
+  </si>
+  <si>
+    <t>湖北省咸宁市温泉城区双鹤路26号曦园小区</t>
+  </si>
+  <si>
+    <t>13986616886</t>
+  </si>
+  <si>
+    <t>422302198412250045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">直邮一组 康迪克女童色水杯 </t>
+  </si>
+  <si>
+    <t>吴卫</t>
+  </si>
+  <si>
+    <t>广东省深圳市宝安区西乡九围洲石公路597号</t>
+  </si>
+  <si>
+    <t>15919489357</t>
+  </si>
+  <si>
+    <t>362204198911025329</t>
+  </si>
+  <si>
+    <t>一组女宝</t>
+  </si>
+  <si>
+    <t>石雁</t>
+  </si>
+  <si>
+    <t>山西省朔州市右玉一中  石雁18534957771，14020319840929502</t>
+  </si>
+  <si>
+    <t>18534957771</t>
+  </si>
+  <si>
+    <t>140203198409295025</t>
+  </si>
+  <si>
+    <t>女宝水杯一套</t>
+  </si>
+  <si>
+    <t>索引-添加时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -650,7 +1067,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -694,11 +1111,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="81">
@@ -1111,11 +1531,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1123,7 +1543,7 @@
     <col min="2" max="2" width="110.5" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" customWidth="1"/>
+    <col min="7" max="9" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1">
@@ -1214,14 +1634,14 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>38</v>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C7">
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1229,13 +1649,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1243,13 +1663,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="D9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1257,13 +1677,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1271,13 +1691,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1285,13 +1705,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1299,13 +1719,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1313,13 +1733,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1327,13 +1747,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1341,306 +1761,356 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>10</v>
       </c>
       <c r="D17" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>10</v>
       </c>
       <c r="D18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G18">
         <v>5</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>528</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19">
         <v>10</v>
       </c>
       <c r="D19" s="1">
-        <v>17</v>
-      </c>
-      <c r="H19">
+        <v>18</v>
+      </c>
+      <c r="I19">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>10</v>
       </c>
       <c r="D20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G20">
         <v>30</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D21" s="1">
-        <v>19</v>
-      </c>
-      <c r="H21">
+        <v>20</v>
+      </c>
+      <c r="I21">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1">
-        <v>20</v>
-      </c>
-      <c r="G22">
-        <v>360</v>
-      </c>
-      <c r="H22">
+        <v>21</v>
+      </c>
+      <c r="I22">
         <v>1300</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>10</v>
       </c>
       <c r="D23" s="1">
-        <v>21</v>
-      </c>
-      <c r="G23">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24">
         <v>10</v>
       </c>
       <c r="D24" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25">
         <v>10</v>
       </c>
       <c r="D25" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D26" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D27" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D29" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D30" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="D31" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>34</v>
+      <c r="B33" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C33">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D33" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>29</v>
+      <c r="B34" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D34" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>30</v>
+      <c r="B35" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C35">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D35" s="1">
-        <v>32</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36">
+        <v>500</v>
+      </c>
+      <c r="D36" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37">
+        <v>360</v>
+      </c>
+      <c r="D37" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="B38" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38">
+        <v>200</v>
+      </c>
+      <c r="D38" s="1">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="B39" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39">
+        <v>100</v>
+      </c>
+      <c r="D39" s="1">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="5:6">
@@ -1649,7 +2119,7 @@
       </c>
       <c r="F51" s="4">
         <f>SUM(C2:C77)+SUM(G1:G77)</f>
-        <v>1487</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="52" spans="5:6">
@@ -1657,7 +2127,7 @@
         <v>32</v>
       </c>
       <c r="F52">
-        <f>SUM(H1:H99)</f>
+        <f>SUM(I1:I99)</f>
         <v>2038</v>
       </c>
     </row>
@@ -1667,12 +2137,12 @@
       </c>
       <c r="F54">
         <f>F52-F51</f>
-        <v>551</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:D54">
-    <sortCondition ref="B1"/>
+    <sortCondition ref="D1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1687,458 +2157,988 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="139.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="18" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="29.33203125" style="9"/>
+    <col min="1" max="1" width="7.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5" style="11" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="29.33203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1">
-      <c r="A1" s="7">
-        <v>1</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="17" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="7" customFormat="1">
+      <c r="A2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="9">
+        <v>2</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="9">
+        <v>2</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="7">
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="9">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="7">
+      <c r="H7" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="9">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="7">
-        <v>4</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7">
-        <v>5</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="7">
-        <v>6</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="7">
-        <v>7</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="17" t="s">
+      <c r="G10" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="9">
+        <v>2</v>
+      </c>
+      <c r="H12" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="9">
+        <v>2</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H16" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="9">
+        <v>2</v>
+      </c>
+      <c r="H17" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H18" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F19" s="12">
+        <v>2</v>
+      </c>
+      <c r="H19" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="12" customFormat="1">
+      <c r="A20" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F20" s="9">
+        <v>1</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9">
+        <v>19</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7">
-        <v>8</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="17" t="s">
+      <c r="F21" s="9">
+        <v>1</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="7">
-        <v>10</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="7">
-        <v>11</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="7">
-        <v>12</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="7">
-        <v>13</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="7">
-        <v>14</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="7">
-        <v>15</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="7">
-        <v>16</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="7">
-        <v>17</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="7">
+      <c r="H21" s="9">
         <v>20</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="7">
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F22" s="9">
+        <v>1</v>
+      </c>
+      <c r="H22" s="9">
         <v>21</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="12" customFormat="1">
-      <c r="A19" s="7">
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F23" s="9">
+        <v>2</v>
+      </c>
+      <c r="H23" s="9">
         <v>22</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="7">
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="F24" s="9">
+        <v>1</v>
+      </c>
+      <c r="H24" s="9">
         <v>23</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="7">
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" s="9">
+        <v>1</v>
+      </c>
+      <c r="H25" s="9">
         <v>24</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="7">
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F26" s="9">
+        <v>1</v>
+      </c>
+      <c r="H26" s="9">
         <v>25</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="7">
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="F27" s="9">
+        <v>1</v>
+      </c>
+      <c r="H27" s="9">
+        <v>26</v>
+      </c>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C28" s="11">
+        <v>18685153339</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F28" s="9">
+        <v>1</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H28" s="9">
         <v>27</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="7">
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="9">
+        <v>1</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H29" s="9">
         <v>28</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="7">
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F30" s="9">
+        <v>1</v>
+      </c>
+      <c r="H30" s="9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F31" s="9">
+        <v>1</v>
+      </c>
+      <c r="H31" s="9">
         <v>30</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="7">
+      <c r="J31" s="14"/>
+    </row>
+    <row r="32" spans="1:10" ht="30">
+      <c r="A32" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="F32" s="9">
+        <v>2</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="H32" s="9">
         <v>31</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="I26" s="12"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="7">
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="F33" s="9">
+        <v>1</v>
+      </c>
+      <c r="H33" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F34" s="9">
+        <v>1</v>
+      </c>
+      <c r="H34" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="F35" s="9">
+        <v>1</v>
+      </c>
+      <c r="H35" s="9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="F36" s="9">
+        <v>1</v>
+      </c>
+      <c r="H36" s="9">
         <v>35</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="7">
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="F37" s="9">
+        <v>2</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="H37" s="9">
         <v>36</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="7">
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="F38" s="9">
+        <v>1</v>
+      </c>
+      <c r="H38" s="9">
         <v>37</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="7">
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="F39" s="9">
+        <v>1</v>
+      </c>
+      <c r="H39" s="9">
         <v>38</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="I30" s="14"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="7">
-        <v>33</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="7">
-        <v>18</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="7">
-        <v>34</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="7">
-        <v>19</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="7">
-        <v>26</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="7">
-        <v>32</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="7">
-        <v>9</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="7">
-        <v>29</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="D38" s="10"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="F40" s="9">
+        <v>1</v>
+      </c>
+      <c r="H40" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="J45" s="9">
+        <f>SUM(F:F)</f>
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A1:C38">
@@ -2159,7 +3159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2187,7 +3187,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="C2" s="15">
         <v>1</v>

--- a/ttt.xlsx
+++ b/ttt.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="267">
   <si>
     <t>???20个颈霜两个地址未给，已经付款</t>
   </si>
@@ -878,6 +878,10 @@
   </si>
   <si>
     <t>个数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李曦 13906908726 福建省福州市鼓楼区杨桥西路12号 颈霜三个</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1534,8 +1538,8 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2113,13 +2117,21 @@
         <v>66</v>
       </c>
     </row>
+    <row r="40" spans="1:5">
+      <c r="B40" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+    </row>
     <row r="51" spans="5:6">
       <c r="E51" t="s">
         <v>31</v>
       </c>
       <c r="F51" s="4">
         <f>SUM(C2:C77)+SUM(G1:G77)</f>
-        <v>1787</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="52" spans="5:6">
@@ -2137,7 +2149,7 @@
       </c>
       <c r="F54">
         <f>F52-F51</f>
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2159,7 +2171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
